--- a/Assets/Editor/CropDetails.xlsx
+++ b/Assets/Editor/CropDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="10350"/>
+    <workbookView windowWidth="21840" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDetails" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Eros</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>itemID</t>
   </si>
@@ -66,6 +69,9 @@
     <t>Seasons</t>
   </si>
   <si>
+    <t>harvestToolItemID</t>
+  </si>
+  <si>
     <t>itemUseRadiue</t>
   </si>
   <si>
@@ -111,15 +117,18 @@
     <t>不同阶段生长需要的天数</t>
   </si>
   <si>
-    <t>不同生长阶段显示的预制体</t>
-  </si>
-  <si>
-    <t>不同生长阶段显示的图片</t>
+    <t>不同生长阶段预制体</t>
+  </si>
+  <si>
+    <t>不同生长阶段图片</t>
   </si>
   <si>
     <t>可种植的季节</t>
   </si>
   <si>
+    <t>收割工具</t>
+  </si>
+  <si>
     <t>使用范围</t>
   </si>
   <si>
@@ -147,7 +156,7 @@
     <t>CropBase|CropBase|CropBase|CropBase|CropBase</t>
   </si>
   <si>
-    <t>Potato_grow_0|Potato_grow_1|Potato_grow_2|Potato_grow_3|Potato_grow_4|Potato_grow_5</t>
+    <t>Potato_grow_0|Potato_grow_1|Potato_grow_2|Potato_grow_3|Potato_grow_4</t>
   </si>
   <si>
     <t>1|2|3|4</t>
@@ -158,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,6 +182,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,19 +212,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -200,49 +257,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,9 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,40 +296,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,73 +345,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,109 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,36 +536,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,25 +558,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +593,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -627,6 +618,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,145 +644,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,32 +1150,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1202,218 +1212,220 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:12">
-      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:14">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" ht="54" spans="1:12">
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:14">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>1007</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="G4">
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>1005</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="H4" t="b">
+      <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="K4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="b">
+      <c r="L4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="9:10">
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="9:10">
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="9:10">
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="9:10">
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="9:10">
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="9:9">
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="1"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" s="1"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="1"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="4:10">
-      <c r="D14" s="1"/>
+    <row r="5" spans="11:12">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="11:12">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="11:12">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="11:12">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="11:12">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="5:12">
       <c r="E14" s="1"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="10:10">
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="10:10">
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="20" spans="8:10">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="12:12">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="12:12">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="20" spans="10:12">
       <c r="J20" s="1"/>
-    </row>
-    <row r="22" spans="8:10">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="22" spans="10:12">
       <c r="J22" s="1"/>
-    </row>
-    <row r="26" spans="8:10">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="26" spans="10:12">
       <c r="J26" s="1"/>
-    </row>
-    <row r="28" spans="8:10">
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="28" spans="10:12">
       <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
